--- a/Planilha_Testes_MeLeva!_SP7 Atualizada.xlsx
+++ b/Planilha_Testes_MeLeva!_SP7 Atualizada.xlsx
@@ -5,18 +5,18 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\michel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Eler\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de teste" sheetId="1" r:id="rId1"/>
     <sheet name="Log dos testes" sheetId="3" r:id="rId2"/>
     <sheet name="Resumo" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="233">
   <si>
     <t>ET01</t>
   </si>
@@ -187,9 +187,6 @@
     <t>Irineu</t>
   </si>
   <si>
-    <t>David Eler</t>
-  </si>
-  <si>
     <t>Letícia Fernandes</t>
   </si>
   <si>
@@ -587,12 +584,153 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>T49 - Aceitar a carona</t>
+  </si>
+  <si>
+    <t>T50 - Acessar a tela de historico de caronas</t>
+  </si>
+  <si>
+    <t>ET27</t>
+  </si>
+  <si>
+    <t>ET28</t>
+  </si>
+  <si>
+    <t>Recomendação realizada com sucesso!</t>
+  </si>
+  <si>
+    <t>T51 - Acessar a tela de historico de caronas a mesma que deseja recomendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T52 - Selecionar o botão "Pedir Carona" </t>
+  </si>
+  <si>
+    <t>T53 - Aceitar a carona soilcitada anteriormente</t>
+  </si>
+  <si>
+    <t>ET29</t>
+  </si>
+  <si>
+    <t>ET30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T54 - Selecionar o botão "Pedir Carona" </t>
+  </si>
+  <si>
+    <t>T55 - Clicar em Enviar o pedido</t>
+  </si>
+  <si>
+    <t>ET31</t>
+  </si>
+  <si>
+    <t>Deverá ser exibido um alerta o numero de do motorista</t>
+  </si>
+  <si>
+    <t>Deverá ser exibido um alerta com o numero e a quantidade de recomendações desse motorista</t>
+  </si>
+  <si>
+    <t>ET32</t>
+  </si>
+  <si>
+    <t>O Campo origem deverá ser preenchido de forma autimatica pelo APP, com a localização atual correta</t>
+  </si>
+  <si>
+    <t>Solicitação de de carona enviada com sucesso</t>
+  </si>
+  <si>
+    <t>T56 - Clicar em Enviar o pedido (para motoristas sem recomendações)</t>
+  </si>
+  <si>
+    <t>ET33</t>
+  </si>
+  <si>
+    <t>ET34</t>
+  </si>
+  <si>
+    <t>ET35</t>
+  </si>
+  <si>
+    <t>T57 - Tentar avançar sem indicar origem</t>
+  </si>
+  <si>
+    <t>T58 - Tentar avançar clicando em localização</t>
+  </si>
+  <si>
+    <t>T59 - Tentar avançar sem indicar destino</t>
+  </si>
+  <si>
+    <t>T60 - Tentar avançar indicando o destino</t>
+  </si>
+  <si>
+    <t>T61 - Solicitar carona e verificar se após 20 minutos a solicitação será cancelada</t>
+  </si>
+  <si>
+    <t>T62 - Tentar indicar número de vagas 0</t>
+  </si>
+  <si>
+    <t>T63 - Tentar indicar numero de vagas maior que 4</t>
+  </si>
+  <si>
+    <t>T64 - Tentar indicar numero de vagas entre 1 ate 4</t>
+  </si>
+  <si>
+    <t>ET27 - T49</t>
+  </si>
+  <si>
+    <t>ET27 - T50</t>
+  </si>
+  <si>
+    <t>ET28 - T51</t>
+  </si>
+  <si>
+    <t>ET29 - T52</t>
+  </si>
+  <si>
+    <t>ET29 - T53</t>
+  </si>
+  <si>
+    <t>ET30 - T54</t>
+  </si>
+  <si>
+    <t>ET30 - T55</t>
+  </si>
+  <si>
+    <t>ET31 - T56</t>
+  </si>
+  <si>
+    <t>ET32 - T57</t>
+  </si>
+  <si>
+    <t>ET32 - T58</t>
+  </si>
+  <si>
+    <t>ET33 - T59</t>
+  </si>
+  <si>
+    <t>ET33 - T60</t>
+  </si>
+  <si>
+    <t>ET34 - T61</t>
+  </si>
+  <si>
+    <t>ET35 - T62</t>
+  </si>
+  <si>
+    <t>ET35 - T63</t>
+  </si>
+  <si>
+    <t>ET35 - T64</t>
+  </si>
+  <si>
+    <t>David Eler Vicente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -865,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -873,11 +1011,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -906,8 +1039,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -923,48 +1054,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -985,18 +1079,48 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1008,15 +1132,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1026,6 +1141,36 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1045,7 +1190,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1084,7 +1229,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1187,7 +1331,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1247,6 +1390,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C767-4652-BD9F-3C507DE21563}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1314,7 +1462,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1374,6 +1521,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C767-4652-BD9F-3C507DE21563}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1441,7 +1593,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1501,6 +1652,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C767-4652-BD9F-3C507DE21563}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1586,7 +1742,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1647,6 +1802,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C767-4652-BD9F-3C507DE21563}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1822,6 +1982,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="177409360"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1837,7 +1998,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1905,7 +2065,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -1949,7 +2109,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2052,7 +2211,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2112,6 +2270,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDF3-4423-BF00-83B9E2F19095}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -2179,7 +2342,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2239,6 +2401,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDF3-4423-BF00-83B9E2F19095}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2306,7 +2473,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2366,6 +2532,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DDF3-4423-BF00-83B9E2F19095}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2451,7 +2622,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2512,6 +2682,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDF3-4423-BF00-83B9E2F19095}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2687,6 +2862,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="228868616"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2702,7 +2878,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2770,7 +2945,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -2809,7 +2984,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2912,7 +3086,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2972,6 +3145,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5C2-4E7D-9133-AF321644B0E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3039,7 +3217,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3099,6 +3276,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A5C2-4E7D-9133-AF321644B0E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3166,7 +3348,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3226,6 +3407,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A5C2-4E7D-9133-AF321644B0E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3311,7 +3497,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3372,6 +3557,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A5C2-4E7D-9133-AF321644B0E3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3547,6 +3737,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="142097728"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3562,7 +3753,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3630,7 +3820,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
@@ -3669,7 +3859,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3772,7 +3961,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3832,6 +4020,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3899,7 +4092,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3959,6 +4151,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4026,7 +4223,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4086,6 +4282,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4171,7 +4372,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4232,6 +4432,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8790-4FB5-BB6A-BEE9C4B9F4E4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4363,7 +4568,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6990,531 +7194,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
+      <c r="B14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="18" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="33"/>
+      <c r="B39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="30"/>
+      <c r="B41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="30"/>
+      <c r="B43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="30"/>
+      <c r="B45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="30"/>
+      <c r="B47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="30"/>
+      <c r="B49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="30"/>
+      <c r="B52" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="6" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="6" t="s">
+    <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="30"/>
+      <c r="B60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="12" t="s">
+    <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="33"/>
+      <c r="B62" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="15" t="s">
+    <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="30"/>
+      <c r="B65" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="14" t="s">
+    <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="30"/>
+      <c r="B66" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="38"/>
-      <c r="B45" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="38"/>
-      <c r="B47" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="38"/>
-      <c r="B49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>152</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+  <mergeCells count="23">
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A9:A10"/>
@@ -7527,6 +7894,11 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7535,16 +7907,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A62" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="18" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
@@ -7553,1006 +7925,1294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>173</v>
+      <c r="F1" s="49" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F2" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F3" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F4" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F5" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F6" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F7" s="51">
+        <v>3</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F8" s="51">
+        <v>3</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F9" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C10" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D10" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E10" s="53">
         <v>42445</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F10" s="51">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="53">
+        <v>42445</v>
+      </c>
+      <c r="F11" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F12" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F13" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F14" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F15" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F16" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="55"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F18" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C19" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F19" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F20" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F21" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F22" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F23" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="57">
+        <v>42466</v>
+      </c>
+      <c r="F24" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F25" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E26" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F26" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" s="57">
+        <v>42465</v>
+      </c>
+      <c r="F27" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="60"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="58"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="60"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="58"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B31" s="58"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="60"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="58"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="60"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B33" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E33" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F33" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F34" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F35" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E36" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F36" s="60">
+        <v>5</v>
+      </c>
+      <c r="H36" s="23"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F37" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E38" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F38" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F39" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E40" s="57">
+        <v>42494</v>
+      </c>
+      <c r="F40" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F41" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E42" s="57">
+        <v>42493</v>
+      </c>
+      <c r="F42" s="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F3" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="D43" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E43" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F43" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F4" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="D44" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F44" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F5" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="D45" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E45" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F45" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F6" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="16" t="s">
+      <c r="D46" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E46" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F46" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F7" s="16">
-        <v>3</v>
-      </c>
-      <c r="G7"/>
-    </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="D47" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F47" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C48" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F8" s="16">
-        <v>3</v>
-      </c>
-      <c r="G8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="D48" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E48" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F48" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F9" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="16" t="s">
+      <c r="D49" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E49" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F49" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F10" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="17">
-        <v>42445</v>
-      </c>
-      <c r="F11" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="D50" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E50" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F50" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E51" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F51" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="D52" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E52" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F52" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="57">
+        <v>42513</v>
+      </c>
+      <c r="F53" s="60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="61"/>
+      <c r="C54" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F13" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D54" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F54" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="B55" s="61"/>
+      <c r="C55" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F14" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="D55" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F55" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="61"/>
+      <c r="C56" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="D56" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E56" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F56" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="D57" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F57" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="61"/>
+      <c r="C58" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F18" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="D58" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F58" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F19" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="D59" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E59" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F59" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B60" s="61"/>
+      <c r="C60" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="D60" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E60" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F60" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="61"/>
+      <c r="C61" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F23" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="5">
-        <v>42466</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F26" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="5">
-        <v>42465</v>
-      </c>
-      <c r="F27" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="26"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="26"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="26"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="26"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F33" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F34" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F35" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F36" s="26">
-        <v>5</v>
-      </c>
-      <c r="H36" s="41"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F37" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F38" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F39" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="5">
-        <v>42494</v>
-      </c>
-      <c r="F40" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F41" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="5">
-        <v>42493</v>
-      </c>
-      <c r="F42" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F43" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F44" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F45" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F46" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F47" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B48" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E48" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F48" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F49" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F50" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E51" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F51" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F52" s="26">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="5">
-        <v>42513</v>
-      </c>
-      <c r="F53" s="26">
-        <v>7</v>
+      <c r="D61" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E61" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F61" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="61"/>
+      <c r="C62" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F62" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="61"/>
+      <c r="C63" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E63" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F63" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="B64" s="61"/>
+      <c r="C64" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F64" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" s="61"/>
+      <c r="C65" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D65" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F65" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="B66" s="61"/>
+      <c r="C66" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D66" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E66" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F66" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" s="61"/>
+      <c r="C67" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F67" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B68" s="61"/>
+      <c r="C68" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E68" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F68" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="61"/>
+      <c r="C69" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E69" s="62">
+        <v>42527</v>
+      </c>
+      <c r="F69" s="55">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8565,7 +9225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
@@ -8585,393 +9245,393 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="A1" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="51" t="s">
+      <c r="B2" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="51" t="s">
-        <v>175</v>
-      </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="53"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
     </row>
     <row r="3" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="46" t="s">
-        <v>186</v>
-      </c>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="M4" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="N4" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="O4" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="P4" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q4" s="42" t="s">
-        <v>178</v>
+      <c r="A4" s="48"/>
+      <c r="B4" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="24" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="44">
+      <c r="A5" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B5" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,3)</f>
         <v>9</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,3)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="26">
         <v>2</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="25">
         <f>IFERROR(100%-C5/B5,0)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,4)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,4)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="31">
+      <c r="H5" s="19">
         <v>0</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="22">
         <f>IFERROR(100%-G5/F5,0)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,5)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="26">
         <v>0</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="25">
         <f>IFERROR(100%-K5/J5,0)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="31">
+      <c r="N5" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,7)</f>
         <v>8</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Jessica",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,7)</f>
         <v>0</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="19">
         <v>0</v>
       </c>
-      <c r="Q5" s="40">
+      <c r="Q5" s="22">
         <f>IFERROR(100%-O5/N5,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="44">
+      <c r="A6" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$53,"Irineu",'Log dos testes'!$B$2:$B$53,"Ok",'Log dos testes'!$F$2:$F$53,3)</f>
         <v>0</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Irineu",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,3)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="26">
         <v>0</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="25">
         <f>IFERROR(100%-C6/B6,0)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Irineu",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,4)</f>
         <v>12</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Irineu",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,4)</f>
         <v>3</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="19">
         <v>4</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="22">
         <f>IFERROR(100%-G6/F6,0)</f>
         <v>0.75</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$53,"Irineu",'Log dos testes'!$B$2:$B$53,"Ok",'Log dos testes'!$F$2:$F$53,5)</f>
         <v>5</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Irineu",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,5)</f>
         <v>0</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="26">
         <v>0</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="25">
         <f>IFERROR(100%-K6/J6,0)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Irineu",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,7)</f>
         <v>1</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Irineu",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,7)</f>
         <v>0</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="40">
+      <c r="Q6" s="22">
         <f>IFERROR(100%-O6/N6,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="44">
+      <c r="A7" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$53,"Lucas",'Log dos testes'!$B$2:$B$53,"Ok",'Log dos testes'!$F$2:$F$53,3)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Lucas",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,3)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="26">
         <v>0</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="25">
         <f>IFERROR(100%-C7/B7,0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Lucas",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,4)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Lucas",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,4)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="19">
         <v>0</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="22">
         <f>IFERROR(100%-G7/F7,0)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$53,"Lucas",'Log dos testes'!$B$2:$B$53,"Ok",'Log dos testes'!$F$2:$F$53,5)</f>
         <v>4</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="26">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Lucas",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,5)</f>
         <v>1</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="26">
         <v>2</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="25">
         <f>IFERROR(100%-K7/J7,0)</f>
         <v>0.75</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Lucas",'Log dos testes'!$B$2:$B$94,"Ok",'Log dos testes'!$F$2:$F$94,7)</f>
         <v>2</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="19">
         <f>COUNTIFS('Log dos testes'!$C$2:$C$94,"Lucas",'Log dos testes'!$B$2:$B$94,"Erro",'Log dos testes'!$F$2:$F$94,7)</f>
         <v>0</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="19">
         <v>0</v>
       </c>
-      <c r="Q7" s="40">
+      <c r="Q7" s="22">
         <f>IFERROR(100%-O7/N7,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" s="39">
+      <c r="A8" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="21">
         <f>SUM(B5:B7)</f>
         <v>9</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="21">
         <f>SUM(C5:C7)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="39">
-        <f t="shared" ref="D8:Q8" si="0">SUM(D5:D7)</f>
+      <c r="D8" s="21">
+        <f t="shared" ref="D8:P8" si="0">SUM(D5:D7)</f>
         <v>2</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="29">
         <f>IFERROR(100%-C8/B8,0)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="21">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I8" s="49">
+      <c r="I8" s="29">
         <f>IFERROR(100%-G8/F8,0)</f>
         <v>0.75</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M8" s="49">
+      <c r="M8" s="29">
         <f>IFERROR(100%-K8/J8,0)</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="49">
+      <c r="Q8" s="29">
         <f>IFERROR(100%-O8/N8,0)</f>
         <v>1</v>
       </c>

--- a/Planilha_Testes_MeLeva!_SP7 Atualizada.xlsx
+++ b/Planilha_Testes_MeLeva!_SP7 Atualizada.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14655" windowHeight="6855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha de teste" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="233">
   <si>
     <t>ET01</t>
   </si>
@@ -1003,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1084,16 +1084,43 @@
     <xf numFmtId="9" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,36 +1168,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7196,8 +7193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7220,7 +7217,7 @@
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -7231,7 +7228,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="7" t="s">
         <v>15</v>
       </c>
@@ -7240,7 +7237,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
@@ -7249,7 +7246,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
@@ -7258,7 +7255,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="47" t="s">
         <v>27</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -7269,7 +7266,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
@@ -7289,7 +7286,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="47" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -7300,7 +7297,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="7" t="s">
         <v>32</v>
       </c>
@@ -7309,7 +7306,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="44" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -7320,7 +7317,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
@@ -7329,7 +7326,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -7340,7 +7337,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
@@ -7349,7 +7346,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
@@ -7358,7 +7355,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="13" t="s">
         <v>66</v>
       </c>
@@ -7389,7 +7386,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="43" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -7400,7 +7397,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="3" t="s">
         <v>71</v>
       </c>
@@ -7420,7 +7417,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -7431,7 +7428,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
@@ -7440,7 +7437,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
@@ -7471,7 +7468,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="44" t="s">
         <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -7482,7 +7479,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>91</v>
       </c>
@@ -7502,7 +7499,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="44" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -7513,7 +7510,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
@@ -7522,7 +7519,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="44" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7533,7 +7530,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>105</v>
       </c>
@@ -7553,7 +7550,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="44" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -7564,7 +7561,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="3" t="s">
         <v>124</v>
       </c>
@@ -7573,7 +7570,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>125</v>
       </c>
@@ -7582,7 +7579,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="44" t="s">
         <v>110</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -7593,7 +7590,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="3" t="s">
         <v>127</v>
       </c>
@@ -7602,7 +7599,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="43" t="s">
         <v>128</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -7613,7 +7610,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="3" t="s">
         <v>134</v>
       </c>
@@ -7622,7 +7619,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="43" t="s">
         <v>131</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -7633,7 +7630,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="3" t="s">
         <v>133</v>
       </c>
@@ -7642,7 +7639,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -7653,7 +7650,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="3" t="s">
         <v>139</v>
       </c>
@@ -7662,7 +7659,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="43" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -7673,7 +7670,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="3" t="s">
         <v>142</v>
       </c>
@@ -7682,7 +7679,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="43" t="s">
         <v>144</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -7693,7 +7690,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="3" t="s">
         <v>149</v>
       </c>
@@ -7713,7 +7710,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="43" t="s">
         <v>188</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -7724,7 +7721,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="3" t="s">
         <v>187</v>
       </c>
@@ -7744,7 +7741,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
+      <c r="A54" s="44" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -7755,7 +7752,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="11" t="s">
         <v>193</v>
       </c>
@@ -7764,7 +7761,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" s="46" t="s">
         <v>195</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -7775,7 +7772,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="3" t="s">
         <v>197</v>
       </c>
@@ -7795,7 +7792,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="43" t="s">
         <v>201</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -7806,7 +7803,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="30"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="3" t="s">
         <v>209</v>
       </c>
@@ -7815,7 +7812,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="44" t="s">
         <v>205</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -7826,7 +7823,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="3" t="s">
         <v>211</v>
       </c>
@@ -7846,7 +7843,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="43" t="s">
         <v>207</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -7857,7 +7854,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="30"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="3" t="s">
         <v>214</v>
       </c>
@@ -7866,7 +7863,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="30"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="3" t="s">
         <v>215</v>
       </c>
@@ -7876,12 +7873,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A9:A10"/>
@@ -7894,11 +7890,12 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7909,8 +7906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7925,1293 +7922,1325 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="30" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="34">
         <v>42445</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="34">
         <v>42445</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="34">
         <v>42445</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="34">
         <v>42445</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="51" t="s">
+      <c r="D6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="34">
         <v>42445</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="34">
         <v>42445</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="32">
         <v>3</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="34">
         <v>42445</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="32">
         <v>3</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="34">
         <v>42445</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="34">
         <v>42445</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="53">
+      <c r="E11" s="34">
         <v>42445</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="38">
         <v>42466</v>
       </c>
-      <c r="F12" s="55">
+      <c r="F12" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="38">
         <v>42466</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="38">
         <v>42466</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="38">
         <v>42466</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="38">
         <v>42466</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="55"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="38">
         <v>42465</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="38">
         <v>42465</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="38">
         <v>42465</v>
       </c>
-      <c r="F20" s="55">
+      <c r="F20" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="38">
         <v>42465</v>
       </c>
-      <c r="F21" s="55">
+      <c r="F21" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="38">
         <v>42465</v>
       </c>
-      <c r="F22" s="55">
+      <c r="F22" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="38">
         <v>42466</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="38">
         <v>42466</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="38">
         <v>42465</v>
       </c>
-      <c r="F25" s="55">
+      <c r="F25" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="38">
         <v>42465</v>
       </c>
-      <c r="F26" s="55">
+      <c r="F26" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E27" s="57">
+      <c r="E27" s="38">
         <v>42465</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="60"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="60"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="60"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="60"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="60"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E33" s="57">
+      <c r="E33" s="38">
         <v>42493</v>
       </c>
-      <c r="F33" s="60">
+      <c r="F33" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="57">
+      <c r="E34" s="38">
         <v>42493</v>
       </c>
-      <c r="F34" s="60">
+      <c r="F34" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C35" s="55" t="s">
+      <c r="C35" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="38">
         <v>42493</v>
       </c>
-      <c r="F35" s="60">
+      <c r="F35" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="38">
         <v>42493</v>
       </c>
-      <c r="F36" s="60">
+      <c r="F36" s="41">
         <v>5</v>
       </c>
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="56" t="s">
+      <c r="B37" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E37" s="57">
+      <c r="E37" s="38">
         <v>42493</v>
       </c>
-      <c r="F37" s="60">
+      <c r="F37" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="38">
         <v>42493</v>
       </c>
-      <c r="F38" s="60">
+      <c r="F38" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E39" s="57">
+      <c r="E39" s="38">
         <v>42493</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="38">
         <v>42494</v>
       </c>
-      <c r="F40" s="60">
+      <c r="F40" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="55" t="s">
+      <c r="A41" s="36" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E41" s="57">
+      <c r="E41" s="38">
         <v>42493</v>
       </c>
-      <c r="F41" s="60">
+      <c r="F41" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="55" t="s">
+      <c r="A42" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E42" s="57">
+      <c r="E42" s="38">
         <v>42493</v>
       </c>
-      <c r="F42" s="60">
+      <c r="F42" s="41">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="55" t="s">
+      <c r="A43" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E43" s="57">
+      <c r="E43" s="38">
         <v>42513</v>
       </c>
-      <c r="F43" s="60">
+      <c r="F43" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="56" t="s">
+      <c r="B44" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="38">
         <v>42513</v>
       </c>
-      <c r="F44" s="60">
+      <c r="F44" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="C45" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E45" s="57">
+      <c r="E45" s="38">
         <v>42513</v>
       </c>
-      <c r="F45" s="60">
+      <c r="F45" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E46" s="57">
+      <c r="E46" s="38">
         <v>42513</v>
       </c>
-      <c r="F46" s="60">
+      <c r="F46" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="38">
         <v>42513</v>
       </c>
-      <c r="F47" s="60">
+      <c r="F47" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C48" s="55" t="s">
+      <c r="C48" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="38">
         <v>42513</v>
       </c>
-      <c r="F48" s="60">
+      <c r="F48" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="55" t="s">
+      <c r="C49" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E49" s="57">
+      <c r="E49" s="38">
         <v>42513</v>
       </c>
-      <c r="F49" s="60">
+      <c r="F49" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="36" t="s">
         <v>158</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E50" s="57">
+      <c r="E50" s="38">
         <v>42513</v>
       </c>
-      <c r="F50" s="60">
+      <c r="F50" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="B51" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E51" s="57">
+      <c r="E51" s="38">
         <v>42513</v>
       </c>
-      <c r="F51" s="60">
+      <c r="F51" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="38">
         <v>42513</v>
       </c>
-      <c r="F52" s="60">
+      <c r="F52" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="56" t="s">
+      <c r="B53" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C53" s="55" t="s">
+      <c r="C53" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E53" s="57">
+      <c r="E53" s="38">
         <v>42513</v>
       </c>
-      <c r="F53" s="60">
+      <c r="F53" s="41">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="55" t="s">
+      <c r="B54" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E54" s="62">
+      <c r="E54" s="42">
         <v>42527</v>
       </c>
-      <c r="F54" s="55">
+      <c r="F54" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="55" t="s">
+      <c r="B55" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E55" s="62">
+      <c r="E55" s="42">
         <v>42527</v>
       </c>
-      <c r="F55" s="55">
+      <c r="F55" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="55" t="s">
+      <c r="B56" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="62">
+      <c r="E56" s="42">
         <v>42527</v>
       </c>
-      <c r="F56" s="55">
+      <c r="F56" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="55" t="s">
+      <c r="B57" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E57" s="62">
+      <c r="E57" s="42">
         <v>42527</v>
       </c>
-      <c r="F57" s="55">
+      <c r="F57" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="55" t="s">
+      <c r="B58" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="42">
         <v>42527</v>
       </c>
-      <c r="F58" s="55">
+      <c r="F58" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="55" t="s">
+      <c r="B59" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E59" s="62">
+      <c r="E59" s="42">
         <v>42527</v>
       </c>
-      <c r="F59" s="55">
+      <c r="F59" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="55" t="s">
+      <c r="B60" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E60" s="62">
+      <c r="E60" s="42">
         <v>42527</v>
       </c>
-      <c r="F60" s="55">
+      <c r="F60" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="55" t="s">
+      <c r="A61" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="61"/>
-      <c r="C61" s="55" t="s">
+      <c r="B61" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E61" s="62">
+      <c r="E61" s="42">
         <v>42527</v>
       </c>
-      <c r="F61" s="55">
+      <c r="F61" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="55" t="s">
+      <c r="A62" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="60" t="s">
+      <c r="B62" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E62" s="62">
+      <c r="E62" s="42">
         <v>42527</v>
       </c>
-      <c r="F62" s="55">
+      <c r="F62" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="60" t="s">
+      <c r="B63" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C63" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E63" s="62">
+      <c r="E63" s="42">
         <v>42527</v>
       </c>
-      <c r="F63" s="55">
+      <c r="F63" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="55" t="s">
+      <c r="A64" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B64" s="61"/>
-      <c r="C64" s="60" t="s">
+      <c r="B64" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C64" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E64" s="62">
+      <c r="E64" s="42">
         <v>42527</v>
       </c>
-      <c r="F64" s="55">
+      <c r="F64" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="55" t="s">
+      <c r="A65" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="60" t="s">
+      <c r="B65" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E65" s="62">
+      <c r="E65" s="42">
         <v>42527</v>
       </c>
-      <c r="F65" s="55">
+      <c r="F65" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="55" t="s">
+      <c r="A66" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="B66" s="61"/>
-      <c r="C66" s="60" t="s">
+      <c r="B66" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E66" s="62">
+      <c r="E66" s="42">
         <v>42527</v>
       </c>
-      <c r="F66" s="55">
+      <c r="F66" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="55" t="s">
+      <c r="A67" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="60" t="s">
+      <c r="B67" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="62">
+      <c r="E67" s="42">
         <v>42527</v>
       </c>
-      <c r="F67" s="55">
+      <c r="F67" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="55" t="s">
+      <c r="A68" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="B68" s="61"/>
-      <c r="C68" s="60" t="s">
+      <c r="B68" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E68" s="62">
+      <c r="E68" s="42">
         <v>42527</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="36">
         <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="B69" s="61"/>
-      <c r="C69" s="60" t="s">
+      <c r="B69" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="E69" s="62">
+      <c r="E69" s="42">
         <v>42527</v>
       </c>
-      <c r="F69" s="55">
+      <c r="F69" s="36">
         <v>8</v>
       </c>
     </row>
@@ -9245,84 +9274,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="40" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="45"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="37" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="24" t="s">
         <v>181</v>
       </c>

--- a/Planilha_Testes_MeLeva!_SP7 Atualizada.xlsx
+++ b/Planilha_Testes_MeLeva!_SP7 Atualizada.xlsx
@@ -1117,10 +1117,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7317,7 +7317,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="3" t="s">
         <v>59</v>
       </c>
@@ -7337,7 +7337,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
@@ -7346,7 +7346,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="2" t="s">
         <v>62</v>
       </c>
@@ -7355,7 +7355,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="13" t="s">
         <v>66</v>
       </c>
@@ -7479,7 +7479,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="3" t="s">
         <v>91</v>
       </c>
@@ -7510,7 +7510,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>103</v>
       </c>
@@ -7530,7 +7530,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>105</v>
       </c>
@@ -7561,7 +7561,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>124</v>
       </c>
@@ -7570,7 +7570,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="3" t="s">
         <v>125</v>
       </c>
@@ -7590,7 +7590,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="3" t="s">
         <v>127</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="11" t="s">
         <v>193</v>
       </c>
@@ -7761,7 +7761,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="45" t="s">
         <v>195</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -7772,7 +7772,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="3" t="s">
         <v>197</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="3" t="s">
         <v>211</v>
       </c>
@@ -7873,11 +7873,12 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A9:A10"/>
@@ -7890,12 +7891,11 @@
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -7906,8 +7906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8968,8 +8968,8 @@
       <c r="A56" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>171</v>
+      <c r="B56" s="37" t="s">
+        <v>170</v>
       </c>
       <c r="C56" s="36" t="s">
         <v>52</v>
